--- a/data/industry_sectors.xlsx
+++ b/data/industry_sectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6113f60f932799a7/1Evan/.eff_fron_spyder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6113f60f932799a7/1Evan/.eff_fron_spyder/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{1E32A5FC-D97B-4C51-B2E8-B46C6AA21334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BCD4E69-F938-4EDE-A871-9E0A7CEC7139}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{1E32A5FC-D97B-4C51-B2E8-B46C6AA21334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4555068-5A26-431F-AFFC-743FACB0AFBD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investments" sheetId="1" r:id="rId1"/>
@@ -94,8 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,9 +153,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -177,6 +175,9 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -194,10 +195,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,157 +488,168 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="11">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" ref="C4:C13" si="0">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.5</v>
+      <c r="B12" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.5</v>
+      <c r="B13" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -662,32 +670,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="3" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <f ca="1">DATE(YEAR(B2)-10,MONTH(B2),DAY(B2))</f>
-        <v>41803</v>
-      </c>
-      <c r="B2" s="10">
+        <v>41858</v>
+      </c>
+      <c r="B2" s="9">
         <f ca="1">NOW()-1</f>
-        <v>45456.322529398145</v>
-      </c>
-      <c r="C2" s="11">
+        <v>45511.67619583333</v>
+      </c>
+      <c r="C2" s="10">
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
